--- a/Question1/V3/Generator power.xlsx
+++ b/Question1/V3/Generator power.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c01d4b1c4952d3c5/ELEC0029 - Project - part1/ELEC0029_project/Question1/V3/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_72925EFD700D5384FAD4B805F0E00FDEFB960444" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{449C0729-208A-41D5-A230-281B2187B752}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18210" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -62,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -77,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,38 +90,348 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="8.85546875" customWidth="true"/>
-    <col min="6" max="6" width="8.85546875" customWidth="true"/>
-    <col min="7" max="7" width="8.85546875" customWidth="true"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="7" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -139,18 +454,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>750.597894817427</v>
+        <v>750.98226212359111</v>
       </c>
       <c r="C2">
-        <v>50.597894817427019</v>
+        <v>50.982262123591084</v>
       </c>
       <c r="D2">
-        <v>399.10840870712701</v>
+        <v>399.29154842359338</v>
       </c>
       <c r="E2">
         <v>250</v>
@@ -162,18 +477,18 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>759.98331479148646</v>
+        <v>751.5</v>
       </c>
       <c r="C3">
-        <v>50.183314791486424</v>
+        <v>50.982262123591084</v>
       </c>
       <c r="D3">
-        <v>398.89204998888471</v>
+        <v>399.29154842359338</v>
       </c>
       <c r="E3">
         <v>250</v>
@@ -185,18 +500,18 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>759.9783092289324</v>
+        <v>751.5</v>
       </c>
       <c r="C4">
-        <v>50.178309228932349</v>
+        <v>50.982262123591084</v>
       </c>
       <c r="D4">
-        <v>398.8896649855501</v>
+        <v>399.29154842359338</v>
       </c>
       <c r="E4">
         <v>250</v>
@@ -208,15 +523,15 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>792.0498504394825</v>
+        <v>783.83271180687859</v>
       </c>
       <c r="C5">
-        <v>82.249850439482543</v>
+        <v>83.314973930469648</v>
       </c>
       <c r="D5">
         <v>405</v>
@@ -231,15 +546,15 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>794.65623567446346</v>
+        <v>786.45931227565984</v>
       </c>
       <c r="C6">
-        <v>84.856235674463505</v>
+        <v>85.941574399250882</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -254,15 +569,15 @@
         <v>800</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>828.97364126837954</v>
+        <v>821.04288511461266</v>
       </c>
       <c r="C7">
-        <v>119.1736412683795</v>
+        <v>120.52514723820376</v>
       </c>
       <c r="D7">
         <v>405</v>
@@ -277,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -285,7 +600,7 @@
         <v>850</v>
       </c>
       <c r="C8">
-        <v>246.78978327344385</v>
+        <v>264.60419768233322</v>
       </c>
       <c r="D8">
         <v>405</v>
@@ -301,21 +616,6 @@
       </c>
     </row>
   </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Question1/V3/Generator power.xlsx
+++ b/Question1/V3/Generator power.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,17 +10,17 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="11_72925EFD700D5384FAD4B805F0E00FDEFB960444" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{449C0729-208A-41D5-A230-281B2187B752}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18210" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18210" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="16">
   <si>
     <t>EVENT</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>POW_G6</t>
+  </si>
+  <si>
+    <t>POW_E1</t>
+  </si>
+  <si>
+    <t>POW_E2</t>
   </si>
 </sst>
 </file>
@@ -82,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="84">
     <border>
       <left/>
       <right/>
@@ -97,13 +103,177 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,54 +588,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="7" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" customWidth="true"/>
+    <col min="2" max="2" width="11.453125" customWidth="true"/>
+    <col min="5" max="5" width="8.36328125" customWidth="true"/>
+    <col min="3" max="3" width="11.453125" customWidth="true"/>
+    <col min="4" max="4" width="11.453125" customWidth="true"/>
+    <col min="6" max="6" width="8.36328125" customWidth="true"/>
+    <col min="7" max="7" width="8.36328125" customWidth="true"/>
+    <col min="8" max="8" width="11.453125" customWidth="true"/>
+    <col min="9" max="9" width="11.453125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="82" t="s">
         <v>13</v>
       </c>
+      <c r="H1" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="82" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="2">
+      <c r="A2" s="82" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>750.98226212359111</v>
+        <v>751.02691733304823</v>
       </c>
       <c r="C2">
-        <v>50.982262123591084</v>
+        <v>51.026917333048274</v>
       </c>
       <c r="D2">
-        <v>399.29154842359338</v>
+        <v>399.31282531751123</v>
       </c>
       <c r="E2">
         <v>250</v>
@@ -476,19 +658,25 @@
       <c r="G2">
         <v>800</v>
       </c>
+      <c r="H2">
+        <v>306.22666980258009</v>
+      </c>
+      <c r="I2">
+        <v>414.12666980258012</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="82" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>751.5</v>
+        <v>751.2414151062502</v>
       </c>
       <c r="C3">
-        <v>50.982262123591084</v>
+        <v>51.241415106250201</v>
       </c>
       <c r="D3">
-        <v>399.29154842359338</v>
+        <v>399.41502719768391</v>
       </c>
       <c r="E3">
         <v>250</v>
@@ -499,19 +687,25 @@
       <c r="G3">
         <v>800</v>
       </c>
+      <c r="H3">
+        <v>307.2360710882362</v>
+      </c>
+      <c r="I3">
+        <v>415.13607108823624</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+    <row r="4">
+      <c r="A4" s="82" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>751.5</v>
+        <v>751.25403262232089</v>
       </c>
       <c r="C4">
-        <v>50.982262123591084</v>
+        <v>51.254032622320914</v>
       </c>
       <c r="D4">
-        <v>399.29154842359338</v>
+        <v>399.42103907298821</v>
       </c>
       <c r="E4">
         <v>250</v>
@@ -522,16 +716,22 @@
       <c r="G4">
         <v>800</v>
       </c>
+      <c r="H4">
+        <v>307.29544763445131</v>
+      </c>
+      <c r="I4">
+        <v>415.19544763445134</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+    <row r="5">
+      <c r="A5" s="82" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>783.83271180687859</v>
+        <v>784.3305153991555</v>
       </c>
       <c r="C5">
-        <v>83.314973930469648</v>
+        <v>84.330515399155516</v>
       </c>
       <c r="D5">
         <v>405</v>
@@ -545,16 +745,22 @@
       <c r="G5">
         <v>800</v>
       </c>
+      <c r="H5">
+        <v>462.94948423132001</v>
+      </c>
+      <c r="I5">
+        <v>570.84948423132005</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+    <row r="6">
+      <c r="A6" s="82" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>786.45931227565984</v>
+        <v>787.16969065443845</v>
       </c>
       <c r="C6">
-        <v>85.941574399250882</v>
+        <v>87.169690654438526</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -568,16 +774,22 @@
       <c r="G6">
         <v>800</v>
       </c>
+      <c r="H6">
+        <v>476.31030896206363</v>
+      </c>
+      <c r="I6">
+        <v>584.21030896206366</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
+    <row r="7">
+      <c r="A7" s="82" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>821.04288511461266</v>
+        <v>821.23453598588037</v>
       </c>
       <c r="C7">
-        <v>120.52514723820376</v>
+        <v>121.23453598588038</v>
       </c>
       <c r="D7">
         <v>405</v>
@@ -591,16 +803,22 @@
       <c r="G7">
         <v>0</v>
       </c>
+      <c r="H7">
+        <v>636.61546346296655</v>
+      </c>
+      <c r="I7">
+        <v>744.51546346296664</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
+    <row r="8">
+      <c r="A8" s="82" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>850</v>
       </c>
       <c r="C8">
-        <v>264.60419768233322</v>
+        <v>258.69999754458081</v>
       </c>
       <c r="D8">
         <v>405</v>
@@ -613,6 +831,12 @@
       </c>
       <c r="G8">
         <v>800</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
